--- a/raw_data/metro/metro_collected_raw_data.xlsx
+++ b/raw_data/metro/metro_collected_raw_data.xlsx
@@ -379,7 +379,7 @@
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
@@ -388,7 +388,7 @@
     <col min="2" max="2" width="39.140625" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" customWidth="1"/>
-    <col min="6" max="6" width="4.5703125" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" customWidth="1"/>
     <col min="8" max="8" width="30.5703125" customWidth="1"/>
     <col min="9" max="9" width="27.140625" customWidth="1"/>
     <col min="10" max="10" width="10.5703125" customWidth="1"/>
